--- a/idea/excel_test.xlsx
+++ b/idea/excel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github_graduate\Valkyrie\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED26340-888B-465F-A8EB-F36B9B918044}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D43CA-2C02-4835-81E7-416393051DC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9408" yWindow="4872" windowWidth="13092" windowHeight="9912" tabRatio="899" activeTab="1" xr2:uid="{851E34BE-B808-48DD-B322-15C9B7AE17C8}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">'Ratio Metadata'!$A$1:$AD$2</definedName>
-    <definedName name="_xlcn.WorksheetConnection_RatioMetadataA1AD921" hidden="1">'Ratio Metadata'!$A$1:$AD$2</definedName>
+    <definedName name="_xlcn.WorksheetConnection_RatioMetadataA1AD92" hidden="1">'Ratio Metadata'!$A$1:$AD$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="区域" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_RatioMetadataA1AD921"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_RatioMetadataA1AD92"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Raman</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67983,7 +67983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557AC690-C6C0-4EC1-B6E4-DF81396E900A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -68213,6 +68213,50 @@
         <v>2713.0906620000001</v>
       </c>
       <c r="N5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43454.551689814813</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.701E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.467E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10.633516999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>67.395494999999997</v>
+      </c>
+      <c r="K6" s="3">
+        <v>21.263863000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>52.729675</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2713.0906620000001</v>
+      </c>
+      <c r="N6" s="3">
         <v>100</v>
       </c>
     </row>

--- a/idea/excel_test.xlsx
+++ b/idea/excel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github_graduate\Valkyrie\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491594D-426E-43B8-AA58-C86C0AB576B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B4410-B851-4A2B-BFD8-53FB6E524732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6384" yWindow="3024" windowWidth="13092" windowHeight="9912" tabRatio="899" activeTab="2" xr2:uid="{851E34BE-B808-48DD-B322-15C9B7AE17C8}"/>
+    <workbookView xWindow="5496" yWindow="6912" windowWidth="13092" windowHeight="9912" tabRatio="899" activeTab="2" xr2:uid="{851E34BE-B808-48DD-B322-15C9B7AE17C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Raman Metadata" sheetId="1" r:id="rId1"/>
